--- a/biology/Neurosciences/Nerf_infra-orbitaire/Nerf_infra-orbitaire.xlsx
+++ b/biology/Neurosciences/Nerf_infra-orbitaire/Nerf_infra-orbitaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nerf infra-orbitaire (ou parfois nerf sous-orbitaire) est issu de la branche maxillaire (V2) du nerf trijumeau (CN V). Il sort de l'orbite en suivant le canal infra-orbitaire et en passant finalement par le foramen infra-orbitaire. Il donne une innervation sensorielle de la peau et des muqueuses de la face[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf infra-orbitaire (ou parfois nerf sous-orbitaire) est issu de la branche maxillaire (V2) du nerf trijumeau (CN V). Il sort de l'orbite en suivant le canal infra-orbitaire et en passant finalement par le foramen infra-orbitaire. Il donne une innervation sensorielle de la peau et des muqueuses de la face.
 </t>
         </is>
       </c>
@@ -511,11 +523,48 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nerf infra-orbitaire voyage avec l'artère et la veine infra-orbitaires. Il est issu d'une branche du nerf maxillaire au niveau de la fosse ptérygo-palatine et passe à travers la fissure orbitaire inférieure pour entrer dans l'orbite. Il se prolonge antérieurement sur le plancher de l'orbite dans le sillon infra-orbitaire jusqu'au canal infra-orbitaire de l'os maxillaire. Il donne 3 branches dans le canal infra-orbitaire : le nerf alvéolaire postéro-supérieur, le nerf alvéolaire supéro-médian et le nerf alvéolaire antéro-supérieur[2]. Il émerge du canal au niveau de la surface antérieure du maxillaire à travers le foramen infra-orbitaire. À ce niveau, il se divise en 3 branches terminales : palpébrale, nasale et labiale supérieure. 
-Branches
-Il donne dans le canal infra-orbitaire du nerf proximal au distal : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf infra-orbitaire voyage avec l'artère et la veine infra-orbitaires. Il est issu d'une branche du nerf maxillaire au niveau de la fosse ptérygo-palatine et passe à travers la fissure orbitaire inférieure pour entrer dans l'orbite. Il se prolonge antérieurement sur le plancher de l'orbite dans le sillon infra-orbitaire jusqu'au canal infra-orbitaire de l'os maxillaire. Il donne 3 branches dans le canal infra-orbitaire : le nerf alvéolaire postéro-supérieur, le nerf alvéolaire supéro-médian et le nerf alvéolaire antéro-supérieur. Il émerge du canal au niveau de la surface antérieure du maxillaire à travers le foramen infra-orbitaire. À ce niveau, il se divise en 3 branches terminales : palpébrale, nasale et labiale supérieure. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nerf_infra-orbitaire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_infra-orbitaire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Branches</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il donne dans le canal infra-orbitaire du nerf proximal au distal : 
 - nerf alvéolaire postéro-supérieur
 - nerf alvéolaire supéro-médian
 - nerf alvéolaire antéro-supérieur
@@ -528,31 +577,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Nerf_infra-orbitaire</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nerf_infra-orbitaire</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est chargé de l’innervation sensitive de : 
 la paupière inférieure ;
@@ -563,33 +614,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Nerf_infra-orbitaire</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nerf_infra-orbitaire</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il peut être lésé lors des fractures du plancher orbitaire entraînant une perte de la sensibilité (hypoesthésie) de la région sous-orbitaire[3][source insuffisante].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut être lésé lors des fractures du plancher orbitaire entraînant une perte de la sensibilité (hypoesthésie) de la région sous-orbitaire[source insuffisante].
 </t>
         </is>
       </c>
